--- a/src/Tests/Templates/Contacts.xlsx
+++ b/src/Tests/Templates/Contacts.xlsx
@@ -118,6 +118,12 @@
   </x:si>
   <x:si>
     <x:t>12.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.05.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -616,7 +622,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L2" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M2" s="2" t="s">
         <x:v>30</x:v>
@@ -647,7 +653,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
         <x:v>30</x:v>
@@ -678,7 +684,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
         <x:v>30</x:v>
